--- a/GA/src/normal-table.xlsx
+++ b/GA/src/normal-table.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tawfiq/Desktop/thesis/GA/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CB44A6B-0988-CF46-83C1-0B5AA6ACE65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5162C30C-1550-8343-BFA9-588AF19B753D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16460" yWindow="6060" windowWidth="27640" windowHeight="16940" firstSheet="12" activeTab="26" xr2:uid="{FB95B9D8-DDBB-8840-B33E-32C0DAF85AC2}"/>
+    <workbookView xWindow="32820" yWindow="6700" windowWidth="27640" windowHeight="16940" activeTab="4" xr2:uid="{FB95B9D8-DDBB-8840-B33E-32C0DAF85AC2}"/>
   </bookViews>
   <sheets>
     <sheet name="T" sheetId="1" r:id="rId1"/>
     <sheet name="Tx" sheetId="2" r:id="rId2"/>
     <sheet name="Txx" sheetId="3" r:id="rId3"/>
     <sheet name="ct" sheetId="4" r:id="rId4"/>
-    <sheet name="cs" sheetId="5" r:id="rId5"/>
+    <sheet name="cs" sheetId="30" r:id="rId5"/>
     <sheet name="cf" sheetId="6" r:id="rId6"/>
     <sheet name="cpxx" sheetId="8" r:id="rId7"/>
     <sheet name="alpha" sheetId="9" r:id="rId8"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="62">
   <si>
     <t>T</t>
   </si>
@@ -151,18 +151,6 @@
     <t>Spx</t>
   </si>
   <si>
-    <t>collection-centerAVehicle3</t>
-  </si>
-  <si>
-    <t>collection-centerAVehicle4</t>
-  </si>
-  <si>
-    <t>collection-centerBVehicle3</t>
-  </si>
-  <si>
-    <t>collection-centerBVehicle4</t>
-  </si>
-  <si>
     <t>cab</t>
   </si>
   <si>
@@ -191,6 +179,72 @@
   </si>
   <si>
     <t>volxx</t>
+  </si>
+  <si>
+    <t>vehicle1-supplierC</t>
+  </si>
+  <si>
+    <t>vehicle2-supplierC</t>
+  </si>
+  <si>
+    <t>supplierC</t>
+  </si>
+  <si>
+    <t>raw-materialC</t>
+  </si>
+  <si>
+    <t>raw-materialD</t>
+  </si>
+  <si>
+    <t>raw-materialE</t>
+  </si>
+  <si>
+    <t>retailerC</t>
+  </si>
+  <si>
+    <t>retailerD</t>
+  </si>
+  <si>
+    <t>retailerE</t>
+  </si>
+  <si>
+    <t>productC</t>
+  </si>
+  <si>
+    <t>collection-centerC</t>
+  </si>
+  <si>
+    <t>collection-centerD</t>
+  </si>
+  <si>
+    <t>collection-centerE</t>
+  </si>
+  <si>
+    <t>collection-centerCVehicle1</t>
+  </si>
+  <si>
+    <t>collection-centerCVehicle2</t>
+  </si>
+  <si>
+    <t>collection-centerDVehicle1</t>
+  </si>
+  <si>
+    <t>collection-centerDVehicle2</t>
+  </si>
+  <si>
+    <t>collection-centerEVehicle1</t>
+  </si>
+  <si>
+    <t>collection-centerEVehicle2</t>
+  </si>
+  <si>
+    <t>wholesalerC</t>
+  </si>
+  <si>
+    <t>wholesalerD</t>
+  </si>
+  <si>
+    <t>wholesalerE</t>
   </si>
 </sst>
 </file>
@@ -609,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3597F05-5B9B-3549-A4FF-63B4F8BF0E93}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -639,6 +693,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -646,10 +708,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B3D399-9D99-7E48-B12A-BD898C39272A}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -669,11 +731,19 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="1">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -683,10 +753,632 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C20003-825D-2B47-8233-9AA259280099}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+    <sheetView zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5">
+        <v>20</v>
+      </c>
+      <c r="C2" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5">
+        <v>21</v>
+      </c>
+      <c r="C3" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="5">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123C7413-6083-2447-9C51-6E5FB8AE38D0}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView zoomScale="261" zoomScaleNormal="261" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F0C977-64D2-FF41-B8D3-1E33572A5A1D}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C136DD00-6C9C-6A45-8E0F-C22E9E54CAB1}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView zoomScale="270" zoomScaleNormal="270" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="1">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="1">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658D6BA5-6049-E34A-A8BE-FE44A635AE08}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView zoomScale="276" zoomScaleNormal="276" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="6">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230DF81C-4C5F-C947-9639-AEE96FDCC97C}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView zoomScale="248" zoomScaleNormal="248" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="5">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="5">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="5">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="5">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7767CEA-40A1-5A43-B085-50891E052459}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="5">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D797A46-6BB1-2D4B-88C9-DD77981FE0A3}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView zoomScale="199" zoomScaleNormal="199" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -702,24 +1394,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C2" s="5">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C3" s="5">
-        <v>23</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="5">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -727,45 +1430,103 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123C7413-6083-2447-9C51-6E5FB8AE38D0}">
-  <dimension ref="A1:C3"/>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F00F8AC-CB5F-D34E-BFF1-6FAB1C0656F3}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3</v>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="5">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -773,12 +1534,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F0C977-64D2-FF41-B8D3-1E33572A5A1D}">
-  <dimension ref="A1:B3"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D469E296-1EA7-CF4C-A41C-E0F22DFEE02F}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -786,23 +1547,111 @@
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437C4117-8BBF-3E48-AEAF-C7C6DF28CC7D}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1">
-        <v>3</v>
+      <c r="B2" s="6">
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="1">
-        <v>4</v>
+      <c r="B3" s="6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="6">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -810,45 +1659,92 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C136DD00-6C9C-6A45-8E0F-C22E9E54CAB1}">
-  <dimension ref="A1:C3"/>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2410469C-6C93-9B42-9F06-AADF7F409D4D}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+    <sheetView zoomScale="238" zoomScaleNormal="238" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="6"/>
+      <c r="B1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="B2" s="10">
+        <v>3</v>
+      </c>
+      <c r="C2" s="10">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10">
+        <v>3</v>
+      </c>
+      <c r="E2" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1">
-        <v>22</v>
+      <c r="B3" s="10">
+        <v>2</v>
+      </c>
+      <c r="C3" s="10">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10">
+        <v>3</v>
+      </c>
+      <c r="F3" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="10">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10">
+        <v>3</v>
+      </c>
+      <c r="D4" s="10">
+        <v>5</v>
+      </c>
+      <c r="E4" s="10">
+        <v>3</v>
+      </c>
+      <c r="F4" s="10">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -856,36 +1752,96 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658D6BA5-6049-E34A-A8BE-FE44A635AE08}">
-  <dimension ref="A1:B3"/>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAC20E2-F6D2-1048-88C7-B8A648259E3E}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
-      <c r="B1" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="10">
+        <v>15</v>
+      </c>
+      <c r="C2" s="10">
+        <v>16</v>
+      </c>
+      <c r="D2" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="6">
-        <v>60</v>
+        <v>15</v>
+      </c>
+      <c r="B3" s="10">
+        <v>16</v>
+      </c>
+      <c r="C3" s="10">
+        <v>17</v>
+      </c>
+      <c r="D3" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="10">
+        <v>16</v>
+      </c>
+      <c r="C4" s="10">
+        <v>16</v>
+      </c>
+      <c r="D4" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="10">
+        <v>12</v>
+      </c>
+      <c r="C5" s="10">
+        <v>15</v>
+      </c>
+      <c r="D5" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="10">
+        <v>14</v>
+      </c>
+      <c r="C6" s="10">
+        <v>16</v>
+      </c>
+      <c r="D6" s="10">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -893,45 +1849,104 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230DF81C-4C5F-C947-9639-AEE96FDCC97C}">
-  <dimension ref="A1:C3"/>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08230652-715C-9046-9C18-91450A816D7B}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="5">
-        <v>7</v>
-      </c>
-      <c r="C2" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="5">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5">
-        <v>7</v>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -939,481 +1954,188 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7767CEA-40A1-5A43-B085-50891E052459}">
-  <dimension ref="A1:B5"/>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A151B2D7-E050-5A40-89E6-2010D9A89297}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="6"/>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="10">
+        <v>2</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>3</v>
+      </c>
+      <c r="D3" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>3</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="10">
+        <v>4</v>
+      </c>
+      <c r="C5" s="10">
+        <v>3</v>
+      </c>
+      <c r="D5" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
+        <v>3</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B871AFD-2A0B-D44F-87EF-BD24E4713973}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="5">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="5">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D797A46-6BB1-2D4B-88C9-DD77981FE0A3}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="5">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="5">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F00F8AC-CB5F-D34E-BFF1-6FAB1C0656F3}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="8">
-        <v>80</v>
+        <v>31</v>
+      </c>
+      <c r="B2" s="1">
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="5">
-        <v>90</v>
+        <v>32</v>
+      </c>
+      <c r="B3" s="1">
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="5">
-        <v>80</v>
+        <v>33</v>
+      </c>
+      <c r="B4" s="1">
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="5">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D469E296-1EA7-CF4C-A41C-E0F22DFEE02F}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437C4117-8BBF-3E48-AEAF-C7C6DF28CC7D}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="6">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="6">
-        <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2410469C-6C93-9B42-9F06-AADF7F409D4D}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="6"/>
-      <c r="B1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="10">
-        <v>3</v>
-      </c>
-      <c r="C2" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="10">
-        <v>2</v>
-      </c>
-      <c r="C3" s="10">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAC20E2-F6D2-1048-88C7-B8A648259E3E}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="6"/>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="10">
-        <v>15</v>
-      </c>
-      <c r="C2" s="10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="10">
-        <v>16</v>
-      </c>
-      <c r="C3" s="10">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08230652-715C-9046-9C18-91450A816D7B}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A151B2D7-E050-5A40-89E6-2010D9A89297}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="6"/>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="10">
-        <v>2</v>
-      </c>
-      <c r="C2" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="10">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B871AFD-2A0B-D44F-87EF-BD24E4713973}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B5" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="B6" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="1">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="1">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="1">
-        <v>170</v>
-      </c>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1433,7 +2155,7 @@
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1461,8 +2183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23E0E2E-B199-1C4C-972B-80750718AF7E}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1470,12 +2192,12 @@
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B2" s="5">
         <v>40</v>
@@ -1483,7 +2205,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B3" s="5">
         <v>20</v>
@@ -1496,15 +2218,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B8ABAD4-698C-DB4F-8148-A870C4DB6720}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="5" t="s">
         <v>6</v>
@@ -1512,27 +2234,114 @@
       <c r="C1" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" s="5">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1542,10 +2351,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C19549-28B5-F948-9EA6-D4C825EA4B56}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1565,11 +2374,19 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1">
         <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="1">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1578,43 +2395,76 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087D9320-AF32-EF4D-8EBF-A7E43B981BD4}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717043CB-7FCD-E149-88A8-0F68155B7288}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="B2" s="6">
         <v>100</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="6">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6">
         <v>100</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6">
+        <v>100</v>
+      </c>
+      <c r="C4" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="6">
+        <v>100</v>
+      </c>
+      <c r="C5" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>100</v>
+      </c>
+      <c r="C6" s="6">
         <v>100</v>
       </c>
     </row>
@@ -1625,15 +2475,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D79CDC4B-DFBC-0F44-8FE8-F07FDD84D47B}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="7" t="s">
         <v>9</v>
@@ -1641,8 +2491,11 @@
       <c r="C1" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1652,16 +2505,64 @@
       <c r="C2" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1671,10 +2572,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC2C972-B100-E448-915F-447FE8A71346}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScale="273" zoomScaleNormal="273" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1701,6 +2602,30 @@
         <v>6000</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="6">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="6">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="6">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1708,15 +2633,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA8438A-13E9-9A4D-8E3F-2D8A788DF1C0}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScale="251" zoomScaleNormal="251" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="5" t="s">
         <v>9</v>
@@ -1724,8 +2652,11 @@
       <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1735,8 +2666,11 @@
       <c r="C2" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1745,6 +2679,23 @@
       </c>
       <c r="C3" s="5">
         <v>2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="5">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1754,13 +2705,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554D3F10-99F3-844F-A381-3FA5BE18A558}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="187" zoomScaleNormal="187" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
@@ -1784,6 +2738,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="6">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
